--- a/biology/Botanique/Ilex_crenata/Ilex_crenata.xlsx
+++ b/biology/Botanique/Ilex_crenata/Ilex_crenata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ilex crenata
 Le Houx crénelé, ou Houx japonais, (Ilex crenata) est un arbuste, souvent un arbrisseau en culture, à feuillage persistant appartenant au genre Ilex, famille des Aquifoliacées, originaire d'Extrême-Orient. Il est cultivé comme arbuste d'ornement.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le houx crénelé est un arbuste à port compact atteignant jusqu'à sept mètres de haut.
 Il porte de petites feuilles de 3 cm de long, de forme oblongue-lancéolée, dont le bord du limbe est finement crénelé, d'où l'adjectif spécifique. Ces feuilles sont persistantes.
@@ -548,7 +562,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire des régions tempérées d'Extrême-Orient (Chine, Japon et Russie - Sakhaline).
 Elle a été introduite du Japon en Europe au XIXe siècle (introduction en Angleterre par Robert Fortune en 1864, puis en France en 1895).
@@ -580,7 +596,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Plante cultivée comme arbuste d'ornement depuis la fin du XIXe siècle, de taille limitée en culture (2 à 3 m de haut maximum), on en connait diverses variétés, dont :
 Convexa, petit arbrisseau à petites feuilles (1 à 2 cm de long) ;
@@ -617,7 +635,9 @@
           <t>Ecologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Houx crénelé est relativement rustique et peut supporter des gelées ponctuelles jusqu'à -20 °C.
 </t>
@@ -648,12 +668,14 @@
           <t>Liste des formes et variétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (2 décembre 2021)[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (2 décembre 2021) :
 variété Ilex crenata var. paludosa (Nakai) H.Hara
 forme Ilex crenata f. microphylla Rehder
-Selon Tropicos                                           (2 décembre 2021)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (2 décembre 2021) (Attention liste brute contenant possiblement des synonymes) :
 Ilex crenata var. aureovariegata Goldring
 Ilex crenata var. convexa Makino
 Ilex crenata var. helleri (Craig) L.H. Bailey
